--- a/public/csv_demo/demo-type-2.xlsx
+++ b/public/csv_demo/demo-type-2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\office\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wificatalog_new\public\csv_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Starters" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="79">
   <si>
     <t>en</t>
   </si>
@@ -152,12 +152,6 @@
     <t>Μεγάλη</t>
   </si>
   <si>
-    <t>Salads</t>
-  </si>
-  <si>
-    <t>Σαλάτες</t>
-  </si>
-  <si>
     <t>Πράσινη</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>Vospeisen</t>
   </si>
   <si>
-    <t>Salate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Με χαλούμι και σως μελιού  </t>
   </si>
   <si>
@@ -267,6 +258,21 @@
   </si>
   <si>
     <t>Salat, Grün</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>κρασιά</t>
+  </si>
+  <si>
+    <t>Σαλάτες,Ορεκτικά</t>
+  </si>
+  <si>
+    <t>Salads,Appetizers</t>
+  </si>
+  <si>
+    <t>Salate,Vospeisen</t>
   </si>
 </sst>
 </file>
@@ -677,64 +683,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="8">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C2" s="8"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -742,21 +752,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -764,88 +769,92 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -853,16 +862,19 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -870,29 +882,35 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
         <v>20</v>
       </c>
     </row>
@@ -904,54 +922,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
@@ -959,9 +979,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D2" s="8"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -969,21 +990,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -991,88 +1007,92 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1080,28 +1100,31 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>30</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1109,58 +1132,64 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>30</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8">
         <v>30</v>
       </c>
-      <c r="Z8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D13" s="6"/>
+      <c r="AA8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1170,82 +1199,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C1" s="9"/>
       <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C2" s="10"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1253,88 +1285,92 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1342,56 +1378,65 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6">
         <v>23</v>
       </c>
-      <c r="Z6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>23</v>
       </c>
-      <c r="Z7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="s">
         <v>65</v>
-      </c>
-      <c r="F8">
-        <v>23</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1402,38 +1447,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
@@ -1441,10 +1488,11 @@
         <v>0</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D2" s="10"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1452,21 +1500,17 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1474,128 +1518,144 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6">
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7">
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8">
         <v>12</v>
       </c>
+      <c r="AE8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
